--- a/NhapHangV2.API/Template/OutStockSessionTemplate.xlsx
+++ b/NhapHangV2.API/Template/OutStockSessionTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\NhapHangCore\NhapHangV2.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9DE5DF-D5F8-4BDD-A01D-E5F7DB40AE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8BE2DD-4244-4833-8B0D-F42842A9BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6D78A059-43F2-4773-9960-E23082ED5660}"/>
   </bookViews>
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,6 +143,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,7 +468,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -470,7 +476,7 @@
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -488,7 +494,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -514,7 +520,7 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -532,5 +538,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>